--- a/Proposal/Papers on agaves from a data science perspective.xlsx
+++ b/Proposal/Papers on agaves from a data science perspective.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amigo\Documents\GitHub\PlantingDates\Proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4632"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Artículo</t>
   </si>
@@ -92,12 +92,141 @@
   <si>
     <t>https://pmc.ncbi.nlm.nih.gov/articles/PMC9858763/</t>
   </si>
+  <si>
+    <t>Agave as a model CAM crop system for a warming and drying world</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/plant-science/articles/10.3389/fpls.2015.00684/full</t>
+  </si>
+  <si>
+    <t>La plantación de agave debería priorizarse derivado a su resistencia a las altas temperaturas y a las largas sequías. Especialmente porque, en comparación de plantas que también son resistentes, es una planta con mayor versatilidad en tanto a bebidas, alimentos, textiles, biocombustible, bioinsecticida, fibra, medicamentos, prebióticos y aditivos alimenticios. Las zonas geográficas están en transición a ser más calientes y secas, lo que hace al agave un candidato ideal para un cultivo importante en los años próximos, aunque los procesos industriales que intervienen en la producción de sus derivados también repercute en el ambiente.</t>
+  </si>
+  <si>
+    <t>They can remove heavy metals from aqueous solutions, as can occur around mines (Romero et al., 2006, 2007).</t>
+  </si>
+  <si>
+    <t>Romero GJ, Parra VF, Cano RI et al. (2007) Biosorption of Pb (II) by Agave tequilana Weber (agave azul) biomass. Revista Mexi cana de Ingenieria Quimica, 6, 295–300. Romero J, Parra FJ, Cano I, Fuentes R (2006) Biosorcion de Cu (II) por biomasa de Agave tequilana weber (agave azul). Memorias del V Congreso Internacional y XI Nacional de Ciencias Ambientales.Uni versidad Autonoma del Estado de Morelos &amp; Academia Nacional de Ciencias Ambientales, Oaxtepec, Morelos. 7 pages in pdf. Available at: http://www.uaemex.mx/Red_Ambientales/docs/ memorias/Extenso/TA/EC/TAC-61.pdf (accessed June 2010).</t>
+  </si>
+  <si>
+    <t>Highlights for Agave Productivity</t>
+  </si>
+  <si>
+    <t>Environ mental Productivity Index (EPI) was developed as a powerful quantitative tool (Nobel, 1988, 2009). It can be used to predict productivity over wide geographical areas and under new environmental conditions to help evaluate the agronomic potential of Agave. An EPI (Light Index Temperature Index Water
+ Index Nutrient Index CO2Index) can predict net
+ CO2 uptake in various regions and for various
+ climates, both current and expected in the future.
+ Global climate change can benefit Agave plants.</t>
+  </si>
+  <si>
+    <t>Agave crop segmentation and maturity classification with deep learning data-centric strategies using very high-resolution satellite imagery</t>
+  </si>
+  <si>
+    <t>Crop segmentation and maturity classification using very high-resolution satellite imagery</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/doi/full/10.1080/01431161.2023.2275320?scroll=top&amp;needAccess=true</t>
+  </si>
+  <si>
+    <t>Integrating remote sensing, image processing and machine learning algorithms for the recognition and counting of agave plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduce a methodology for the detection and counting of agave plants based on the use of Unmanned Aerial Vehicles (UAV) known as drones, image processing techniques, and machine learning. we identify agave cultivation rows from other sections of the field to simplify the detection of agave plants using a superpixel approach and the Random Forest Classifier Algorithm (RFCA). In the second stage, we use YOLOv5 to detect agave plants and perform counting through YOLOv5 inference </t>
+  </si>
+  <si>
+    <t>Expanded Potential Growing Region and Yield Increase for Agave americana with Future Climate</t>
+  </si>
+  <si>
+    <t>USING REMOTE SENSING TO SUPPORT DIFFERENT APPROACHES TO IDENTIFY AGAVE (Agave tequilana Weber) CROPS</t>
+  </si>
+  <si>
+    <t>a project of satellite imagery classification, in order to identify, locate, and evaluate agave plantations.</t>
+  </si>
+  <si>
+    <t>PRONÓSTICO DE TENDENCIA EN LA SUPERFICIE SEMBRADA DE AGAVE MEZCALERO EN GUANAJUATO UTILIZANDO MODELOS ARIMA. FORECASTING AGAVE MEZCALERO PLANTED AREA TRENDS IN GUANAJUATO USING ARIMA MODELS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">análisis de 
+series de tiempo utilizando modelos (ARIMA) Autorregresivos Integrados de Medias Móviles con 
+datos del 2007 al 2022 obtenidos del Servicio de Información Agroalimentaria y 
+Pesquera para pronosticar la tendencia en la superficie sembrada de agave mezcalero 
+en el estado de Guanajuato. la superficie sembrada es generalmente estable, pero exhibe fluctuaciones sustanciales. 
+Se encontró que el área a sembrar con agave mezcalero disminuirá de 
+aproximadamente 3927 hectáreas en 2023 a 3483 hectáreas en 2024, aunque este 
+pronóstico cuenta con amplios intervalos de predicción, lo que resalta una incertidumbre 
+asociada. </t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Rocio_Canas2/publication/391450450_La_felicidad_desde_una_perspectiva_de_la_responsabilidad_social_en_las_organizaciones/links/681886ee60241d5140229ea5/La-felicidad-desde-una-perspectiva-de-la-responsabilidad-social-en-las-organizaciones.pdf#page=625</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/2073-4395/11/11/2109#B21-agronomy-11-02109</t>
+  </si>
+  <si>
+    <t>using the environmental productivity index (EPI) model from [21] and then compared geospatial biomass projections with current climate conditions, future climate conditions with global temperatures 4 °C above pre-industrial levels, optimal irrigation inputs, and rock mulching. The resulting EPI for the crop was then fit to the linear regression model resolved by Niechayev et al. [21] to calculate total crop dry biomass (Mg ha−1) in each grid cell as.  We show that &gt;10 Mg ha 1 y 1 of A.
+ americana biomass could be produced on 27 million ha of cropland without requiring irrigation.</t>
+  </si>
+  <si>
+    <t>Using relationships between carbon assimilation and night temperature [25], theoretical CO2 assimilation data were calculated for A. tequilana at four specific geo graphical locations in Mexico. The estimated results ranged from 39 to 42 Mg CO2 ha−1 year−1 (21–23 Mg biomass ha−1 year−1) [9], which are close to the actual productivity of 25 Mg ha−1 year−1 [40].</t>
+  </si>
+  <si>
+    <t>Potential of Plants from the Genus Agave as Bioenergy Crops</t>
+  </si>
+  <si>
+    <t>Unmanned aerial vehicle images in the machine learning for agave detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> six supervised classification algorithms were compared. The algorithms were based on cluster analysis, distance, 
+deep learning, and object-based image analysis. </t>
+  </si>
+  <si>
+    <t>AGAVE PLANT DENSITY USING CONVOLUTIONAL NEURAL NETWORKS ON AERIAL IMAGERY</t>
+  </si>
+  <si>
+    <t> YOLOv4 and YOLOv4-tiny convolutional algorithms were implemented and evaluated using high-resolution RGB aerial images captured by a remotely piloted aircraft system for the determination of agave plant density.</t>
+  </si>
+  <si>
+    <t>A model of environmental limitations on production of Agave americana L. grown as a biofuel crop in semi-arid regions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> This study was the first to measure the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>photosynthetic response</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (PAR: photosynthetically active 
+radiation )
+of A. americana to varied light levels, and this response was es
+sential to characterize before an EPI model could be devel
+oped to predict potential productivity of this emerging crop 
+species.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jxb/article/70/22/6549/5267110</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,13 +255,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -148,7 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -158,6 +301,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -442,18 +600,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -475,7 +633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -486,1227 +644,1285 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+    <row r="4" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+    <row r="9" spans="1:3" ht="288" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+    <row r="11" spans="1:3" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+    <row r="13" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+    <row r="14" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -1715,8 +1931,13 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C11"/>
+    <hyperlink ref="C9" r:id="rId5" location="B21-agronomy-11-02109"/>
+    <hyperlink ref="C15" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Proposal/Papers on agaves from a data science perspective.xlsx
+++ b/Proposal/Papers on agaves from a data science perspective.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Artículo</t>
   </si>
@@ -221,12 +221,169 @@
   <si>
     <t>https://academic.oup.com/jxb/article/70/22/6549/5267110</t>
   </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S037837742500472X</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">•Simplified method for determining growing degree day (GDD) is proposed to estimate FAO Kc segmented curve stages.
+•Indicative base and upper temperature thresholds for vegetable, field, grass and woody fruit crops were tabulated; e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Agave sisalana</t>
+    </r>
+  </si>
+  <si>
+    <t>Recursos adicionales: https://www.fao.org/4/x0490e/x0490e0b.htm#chapter%206%20%20%20etc%20%20%20single%20crop%20coefficient%20(kc)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Estimating the lengths of crop growth stages to define the crop coefficient curves using growing degree days (GDD): Application of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>revised FAO56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> guidelines</t>
+    </r>
+  </si>
+  <si>
+    <t>Economic Model for the Production of Spirit, Inulin and Syrup from the Locally Eco-friendly Agave Americana</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2212827115002929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Analytic Hierarchy Process (AHP) (Eigenvalor principal) was used to 
+analyze a set of factors that affect agave production as well as possible alternatives by finding one with the best rating based on the 
+given preferences.                        Inulin offers the better benefit to cost ratio compared to agave spirit and inulin.  </t>
+  </si>
+  <si>
+    <t>Size-exclusion chromatography (HPLC-SEC) technique optimization by simplex method to estimate molecular weight distribution of agave fructans</t>
+  </si>
+  <si>
+    <t>Agave fructans (carbohidratos naturales) are increasingly important in food industry and nutrition sciences as a potential ingredient of functional food, thus practical analysis tools to characterize them are needed. This study has the purpose to optimize a method to determine their molecular weight distribution by HPLC-SEC for industrial application. This technique might be for quality control, study of fractionation processes and determination of purity</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S0308814617310026</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bioenergy crop production potential and carbon mitigation from
+ marginal and degraded lands of India</t>
+  </si>
+  <si>
+    <t>developed geospatial model was spatially validated to confirm the accuracy of the produced Pml map (potential marginal and degraded lands (Pml) and their
+ suitability for bioenergy crop production)</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0960148122005778</t>
+  </si>
+  <si>
+    <t>Allometric models for estimating leaf biomass of sisal in a semi-arid environment in Kenya</t>
+  </si>
+  <si>
+    <r>
+      <t>•Leaf maximum width and plant height predict leaf biomass with high accuracy.
+•Models can be used to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> estimate biomass, productivity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and bioenergy potential. ¿Allometric models? log-log linear models?</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0961953421003299</t>
+  </si>
+  <si>
+    <t>Land suitability assessment for sisal production: A machine learning and Analytical Hierarchy Process integrated approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study applied multicriteria decision analysis by intergrading soil, climate, and topography parameters with the Analytical Hierarchy Process (AHP) and Random Forest (RF) model to analyze the land suitability for sisal production in Kilosa District, Tanzania Soil
+pH
+CEC
+OC
+TN
+P
+K
+Ca
+Mg
+Sand
+Clay
+Silt
+Depth
+Topography
+Elevation
+Slope
+Climate
+Rainfall
+Temperature
+</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2950289625000168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prediction and measurement of high annual 
+productivity for Opuntiaficus-indica </t>
+  </si>
+  <si>
+    <t>Sustituyen al EPI por un nuevo índice PPFD ( photosynthetic photon flux density, este ignora el índice de temperatura) y logran estimar la producción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WORLDWIDE ENVIRONMENTAL PRODUCTIVITY INDICES 
+AND YIELD PREDICTIONS FOR A CAM PLANT, OPUNTIA 
+FICUS-INDICA, INCLUDING EFFECTS OF DOUBLED CO2 
+LEVELS </t>
+  </si>
+  <si>
+    <t>En conjunto, EPI y un modelo para simular el efecto del alza en los niveles de CO2, generan predicciones de la productividad del nopal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,8 +420,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +452,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,7 +475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -315,6 +499,41 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -598,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C248"/>
+  <dimension ref="A1:G248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,9 +828,10 @@
     <col min="1" max="1" width="26.109375" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" customWidth="1"/>
     <col min="3" max="3" width="31.44140625" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -633,7 +853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -644,7 +864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -655,7 +875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
         <v>12</v>
@@ -664,7 +884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
@@ -673,7 +893,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -684,7 +904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -693,7 +913,7 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="288" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="288" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -704,7 +924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -713,7 +933,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -724,7 +944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -733,7 +953,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -742,7 +962,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -751,7 +971,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -762,170 +982,301 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+    <row r="16" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="384.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="15"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="15"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="15"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="15"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="15"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="15"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="15"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="15"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="15"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
@@ -1933,11 +2284,17 @@
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C7" r:id="rId4"/>
-    <hyperlink ref="C11"/>
+    <hyperlink ref="C11" display="https://www.researchgate.net/profile/Rocio_Canas2/publication/391450450_La_felicidad_desde_una_perspectiva_de_la_responsabilidad_social_en_las_organizaciones/links/681886ee60241d5140229ea5/La-felicidad-desde-una-perspectiva-de-la-responsabilidad-social-en"/>
     <hyperlink ref="C9" r:id="rId5" location="B21-agronomy-11-02109"/>
     <hyperlink ref="C15" r:id="rId6"/>
+    <hyperlink ref="C16" r:id="rId7"/>
+    <hyperlink ref="C17" r:id="rId8"/>
+    <hyperlink ref="C18" r:id="rId9"/>
+    <hyperlink ref="C19" r:id="rId10"/>
+    <hyperlink ref="C20" r:id="rId11"/>
+    <hyperlink ref="C21" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Proposal/Papers on agaves from a data science perspective.xlsx
+++ b/Proposal/Papers on agaves from a data science perspective.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amigo\Documents\GitHub\PlantingDates\Proposal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\PlantingDates\Proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4632"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Artículo</t>
   </si>
@@ -377,6 +377,88 @@
   </si>
   <si>
     <t>En conjunto, EPI y un modelo para simular el efecto del alza en los niveles de CO2, generan predicciones de la productividad del nopal</t>
+  </si>
+  <si>
+    <t>An Agave Counting Methodology Based on Mathematical Morphology and Images Acquired through Unmanned Aerial Vehicles</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/1424-8220/20/21/6247</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The number of agave plants in the field is one of the main parameters for estimating production of tequila. In this manuscript, we describe a mathematical morphology-based algorithm that addresses the agave automatic counting task. The proposed methodology was applied to a set of real images collected using an Unmanned Aerial Vehicle equipped with a digital Red-Green-Blue (RGB) camera. The number of plants automatically identified in the collected images was compared to the number of plants counted by hand</t>
+  </si>
+  <si>
+    <t>Fuzzy GIS-based multi-criteria evaluation for US Agave production as a bioenergy feedstock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The potential distributions of Agave tequilana and Agave deserti in the United States were evaluated based on plant growth parameters identified in an extensive literature review. A geospatial suitability model rooted in fuzzy logic was developed that utilized a suite of biophysical criteria to optimize ideal geographic locations for this new crop, and several suitability scenarios were tested for each species. </t>
+  </si>
+  <si>
+    <t>The objective of this study was to evaluate and compare five deep learning models: YOLO versions 7, 7-tiny, and 8, and two from the Detectron2 library, Faster-RCNN and RetinaNet, for the detection and classification of Agave angustifolia plants in digital images</t>
+  </si>
+  <si>
+    <t>Detection and Classification of Agave angustifolia Haw Using Deep Learning Models</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/2077-0472/14/12/2199</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/abs/10.1111/gcbb.12116</t>
+  </si>
+  <si>
+    <t>Optimal planting density of Agave for maximising aboveground biomass: A systematic literature review</t>
+  </si>
+  <si>
+    <t>use PRISMA (Preferred Reporting Items for Systematic Reviews and Meta-Analyses) to suggest an optimum planting density for the highest dry aboveground productivity. The meta-analysis suggested that the optimal planting density of Agave is approximately 2,600 plants ha−1, which provides optimal dry aboveground biomass of 28.8 Mg ha−1 yr−1</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/chemical-engineering/articles/10.3389/fceng.2022.1039675/full</t>
+  </si>
+  <si>
+    <t>Detección de Agave angustifolia y Agave cupreata con técnicas geomáticas en Guerrero, México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el objetivo de este trabajo fue localizar espacialmente el agave mezcal, en particular las especies Agave cupreata Trel. &amp; Berger y Agave angustifolia Haw., con tecnologías geomáticas para identificar (a través de imágenes) los ambientes diversificados del agave (silvestre o cultivado) que fortalezcan los procesos agroproductivos y potencien los subproductos del cultivo. </t>
+  </si>
+  <si>
+    <t>http://www.scielo.org.co/scielo.php?pid=S0122-87062022000200009&amp;script=sci_arttext</t>
+  </si>
+  <si>
+    <t>A Multi-Disciplinary Approach to Remote Sensing through Low-Cost UAVs</t>
+  </si>
+  <si>
+    <t>we proposed a methodology for agave crop monitoring. The methodology combines remote sensing through low-cost UAV, photogrammetry, computer vision, data mining, geomatics and computer science. This study has demonstrated the potential development of low-cost unmanned aerial vehicles in the area of agave monitoring. We achieved excellent detection results, which is demonstrated by the obtained precision value of 99%. The monitoring of the vegetation through UAV will allow, in the near future, the generation of very important data for the study of plants such as agave.</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/1424-8220/17/6/1411</t>
+  </si>
+  <si>
+    <t>Comparison Of Algorithms For Agave Detection On
+ Unmanned Aerial Vehicle Images</t>
+  </si>
+  <si>
+    <t>ix supervised classification algorithms were compared. The algorithms were based on cluster 40 
+analysis, distance, deep learning and object-based image analysis. Our objective was to determine which of 41 
+these algorithms has the highest overall accuracy in both detection and automated estimation of agave cover in 42 
+a given area to help growers manage their plantations</t>
+  </si>
+  <si>
+    <t>Automated Agave Detection and Counting Using a Convolutional Neural Network and Unmanned Aerial Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an automatic agave detection method for counting plants based on aerial data from a UAV (Unmanned Aerial Vehicle). Our objective is to autonomously count the number of agave plants in an area to aid management of the yield. </t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/2504-446X/5/1/4</t>
+  </si>
+  <si>
+    <t>Assessing Leaf Biomass of Agave sisalana Using Sentinel-2 Vegetation Indices</t>
+  </si>
+  <si>
+    <t>Biomass is a principal variable in crop monitoring and management and in assessing carbon cycling. Remote sensing combined with field measurements can be used to estimate biomass over large areas.  Sentinel-2 multispectral satellite imagery was used to model biomass in an 8851-ha plantation in semi-arid south-eastern Kenya. Generalised Additive Models were employed to explore how well biomass was explained by various spectral vegetation indices (VIs). The highest performance (explained deviance = 76%, RMSE = 5.15 Mg ha−1) was achieved with ratio and normalised difference VIs based on the green (R560), red-edge (R740 and R783), and near-infrared (R865) spectral bands. Heterogeneity of ground vegetation and resulting background effects seemed to limit model performance. The best performing VI (R740/R783) was used to predict plantation biomass that ranged from 0 to 46.7 Mg ha−1 (mean biomass 10.6 Mg ha−1).</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/2072-4292/13/2/233</t>
   </si>
 </sst>
 </file>
@@ -475,7 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -535,6 +617,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -819,19 +904,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" customWidth="1"/>
-    <col min="4" max="4" width="43.21875" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -842,7 +927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -853,7 +938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -864,7 +949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="330" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -875,7 +960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
         <v>12</v>
@@ -884,7 +969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="285" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
@@ -893,7 +978,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -904,7 +989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -913,7 +998,7 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -924,7 +1009,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -933,7 +1018,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="390" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -944,7 +1029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -953,7 +1038,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -962,7 +1047,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -971,7 +1056,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -982,7 +1067,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>41</v>
       </c>
@@ -996,7 +1081,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -1007,7 +1092,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="240" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -1018,7 +1103,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -1029,7 +1114,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>51</v>
       </c>
@@ -1040,7 +1125,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="384.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="384.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
@@ -1051,7 +1136,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>57</v>
       </c>
@@ -1064,7 +1149,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>59</v>
       </c>
@@ -1077,88 +1162,140 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="18"/>
+    <row r="24" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>62</v>
+      </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="19"/>
+    <row r="25" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>69</v>
+      </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="19"/>
+    <row r="26" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>68</v>
+      </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="19"/>
+    <row r="27" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>72</v>
+      </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="19"/>
+    <row r="28" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="19"/>
+    <row r="29" spans="1:7" ht="300" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>78</v>
+      </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
-      <c r="B30" s="21"/>
+    <row r="30" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>80</v>
+      </c>
       <c r="C30" s="19"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="19"/>
+    <row r="31" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>83</v>
+      </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="19"/>
+    <row r="32" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>86</v>
+      </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="21"/>
       <c r="C33" s="19"/>
@@ -1167,7 +1304,7 @@
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="21"/>
       <c r="C34" s="19"/>
@@ -1176,7 +1313,7 @@
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="21"/>
       <c r="C35" s="19"/>
@@ -1185,7 +1322,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="21"/>
       <c r="C36" s="18"/>
@@ -1194,7 +1331,7 @@
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="21"/>
       <c r="C37" s="19"/>
@@ -1203,7 +1340,7 @@
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="21"/>
       <c r="C38" s="19"/>
@@ -1212,7 +1349,7 @@
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="21"/>
       <c r="C39" s="18"/>
@@ -1221,7 +1358,7 @@
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="20"/>
       <c r="C40" s="19"/>
@@ -1230,7 +1367,7 @@
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="20"/>
       <c r="C41" s="17"/>
@@ -1239,7 +1376,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="16"/>
@@ -1248,1032 +1385,1032 @@
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -2293,8 +2430,16 @@
     <hyperlink ref="C19" r:id="rId10"/>
     <hyperlink ref="C20" r:id="rId11"/>
     <hyperlink ref="C21" r:id="rId12"/>
+    <hyperlink ref="C24" r:id="rId13"/>
+    <hyperlink ref="C26" r:id="rId14"/>
+    <hyperlink ref="C25" r:id="rId15"/>
+    <hyperlink ref="C27" r:id="rId16"/>
+    <hyperlink ref="C28" r:id="rId17"/>
+    <hyperlink ref="C29" r:id="rId18"/>
+    <hyperlink ref="C31" r:id="rId19"/>
+    <hyperlink ref="C32" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/Proposal/Papers on agaves from a data science perspective.xlsx
+++ b/Proposal/Papers on agaves from a data science perspective.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Artículo</t>
   </si>
@@ -459,6 +459,22 @@
   </si>
   <si>
     <t>https://www.mdpi.com/2072-4292/13/2/233</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quality estimation of Agave tequilana leaf for 
+bioethanol production</t>
+  </si>
+  <si>
+    <t>Spectra of leaves were obtained using a hand-held silicon photodiode 
+array (Si PDA)-based spectrometer with a wavelength range of 300–1100 nm and an InGaAs-based Fourier transform near infrared 
+(FT-NIR) spectrometer with a wavelength range of 1100–2500 nm. Agave tequilana is a potential biofuel crop, for which the characters of juice total soluble sugar content (TSS), dry matter content (DM), 
+cellulose , hemicellulose and lignin content are quality criteria.</t>
+  </si>
+  <si>
+    <t>Biochemical and physiological time-of-day variations in early-development phase of Agave mapisaga and Agave salmiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study also evaluated changes in the relative abundance of several different metabolites (sugars, free amino acids, and soluble phenols) during the major daily phases (I, III, and IV) of Crassulacean acid metabolism (CAM). At the end of Phase I compared to Phase IV, the results showed significant reductions in dry matter (up to 3.3%) and also reductions in fructose/sucrose. Relative amino acid concentrations were lowest in Phase III (8.8 μmol g−1) compared to Phase I (16 μmol g−1). </t>
   </si>
 </sst>
 </file>
@@ -904,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,18 +1311,26 @@
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="21"/>
+    <row r="33" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>88</v>
+      </c>
       <c r="C33" s="19"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="21"/>
+    <row r="34" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>90</v>
+      </c>
       <c r="C34" s="19"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>

--- a/Proposal/Papers on agaves from a data science perspective.xlsx
+++ b/Proposal/Papers on agaves from a data science perspective.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Artículo</t>
   </si>
@@ -475,6 +475,33 @@
   </si>
   <si>
     <t xml:space="preserve">This study also evaluated changes in the relative abundance of several different metabolites (sugars, free amino acids, and soluble phenols) during the major daily phases (I, III, and IV) of Crassulacean acid metabolism (CAM). At the end of Phase I compared to Phase IV, the results showed significant reductions in dry matter (up to 3.3%) and also reductions in fructose/sucrose. Relative amino acid concentrations were lowest in Phase III (8.8 μmol g−1) compared to Phase I (16 μmol g−1). </t>
+  </si>
+  <si>
+    <t>Multispectral Image Analysis of Remotely Sensed Crops</t>
+  </si>
+  <si>
+    <t>recognizing individual objects and providing insights from vegetation indices. The data acquired was remote-sensed multispectral images from blueberry, maguey, and pineapple. After computing vegetation indices, histograms were analyzed to choose thresholds. The masking of vegetation indices with threshold allowed the removal of areas with shadows and soil. The four leading vegetation indices used were the Normalized Difference Vegetation Index (NDVI), the Normalized Difference Red Edge (NDRE), the Simple Ratio, the Red Edge Chlorophyll Index, and the Visible Atmospherically Resistant Index (SAVI).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis and development of cost equations for mechanized agave 
+transplantation versus manual </t>
+  </si>
+  <si>
+    <t>In this study, equations are developed to compare the costs of manual transplantation 
+versus mechanized transplantation, considering a prototype of a transplanting machine.   A decision criterion was established to compare manual and 
+mechanized transplantation, where the latter represents 85% of the first, justifying its choice.</t>
+  </si>
+  <si>
+    <t>Field productivity of a CAM plant, Agave salmiana, estimated using daily acidity changes under various environmental conditions</t>
+  </si>
+  <si>
+    <t>Nocturnal acidity increases of the Crassulaceae acid metabolism succulent Agave salmiana Otto ex Salm. ssp. crassispina (Trel.) Gentry were determined for various photosynthetically active radiation (PAR) levels in the field and various day/night temperatures and soil water potentials in the laboratory. When a particular factor was optimal for nocturnal acid accumulation, it was assigned an index value of unity. The product of the three indices was termed the environmental productivity index (EPI), which summarizes the effect of PAR, temperature, and water status on nocturnal acid accumulation. A monthly value for EPI was determined using microclimatic conditions at the field site near Salinas de Hidalgo, San Luis Potosf, Mexico. EPI was highly correlated with the number of leaves unfolding monthly from plants in the field (r2= 0.95), where monitoring of such leaf unfolding is a non-destructive technique for assessing plant productivity. By using the measured leaf area index for four groups of A. salmiana and a relationship between acid accumulation and net CO2 up-take, the EPI acidity data were converted to dry weight gain per unit ground area. This measure of productivity closely agreed with the 1.05 kg m−2 year−1 determined by conventional harvesting techniques.</t>
+  </si>
+  <si>
+    <t>Multi-objective optimization through artificial intelligence for designing of an Agave angustifolia leaf shredder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A neural network and a genetic algorithm were used in a hybrid method to get the optimal design parameters of an Agave angustifolia Haw. green leaf shredder. First, a prototype of an experimental machine was built using the design parameters recommended by the literature and calculated using linear equations. Then, the shredder prototype was subjected to experiments. </t>
   </si>
 </sst>
 </file>
@@ -920,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D42" sqref="D38:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,36 +1364,52 @@
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="21"/>
+    <row r="35" spans="1:7" ht="330" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>92</v>
+      </c>
       <c r="C35" s="19"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="21"/>
+    <row r="36" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>94</v>
+      </c>
       <c r="C36" s="18"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="21"/>
+    <row r="37" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>96</v>
+      </c>
       <c r="C37" s="19"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="21"/>
+    <row r="38" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>98</v>
+      </c>
       <c r="C38" s="19"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>

--- a/Proposal/Papers on agaves from a data science perspective.xlsx
+++ b/Proposal/Papers on agaves from a data science perspective.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Artículo</t>
   </si>
@@ -502,6 +502,12 @@
   </si>
   <si>
     <t xml:space="preserve">A neural network and a genetic algorithm were used in a hybrid method to get the optimal design parameters of an Agave angustifolia Haw. green leaf shredder. First, a prototype of an experimental machine was built using the design parameters recommended by the literature and calculated using linear equations. Then, the shredder prototype was subjected to experiments. </t>
+  </si>
+  <si>
+    <t>Comparison of models for estimating the planted area of Agave spp. for mezcal production in Mexico</t>
+  </si>
+  <si>
+    <t>The aim of this study was to compare forecasting models for the planted area of agave mezcalero from 2023 to 2027, using data from the 1982–2022 period through autoregressive integrated moving average (ARIMA) models, in order to promote the efficient management of natural resources. The results identified a growth scenario for the planted area of agave mezcalero during the 2023–2027 period. The most accurate model, the autoregressive (4,0,0), projected that the maximum planted area would be reached in 2024, ranging from 22,723 to 60,280 hectares, followed by a gradual decline starting in 2025.</t>
   </si>
 </sst>
 </file>
@@ -947,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D42" sqref="D38:D42"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,9 +1422,13 @@
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="21"/>
+    <row r="39" spans="1:7" ht="330" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>100</v>
+      </c>
       <c r="C39" s="18"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>

--- a/Proposal/Papers on agaves from a data science perspective.xlsx
+++ b/Proposal/Papers on agaves from a data science perspective.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\PlantingDates\Proposal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amigo\Documents\GitHub\PlantingDates\Proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4632"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -406,9 +406,6 @@
     <t>https://onlinelibrary.wiley.com/doi/abs/10.1111/gcbb.12116</t>
   </si>
   <si>
-    <t>Optimal planting density of Agave for maximising aboveground biomass: A systematic literature review</t>
-  </si>
-  <si>
     <t>use PRISMA (Preferred Reporting Items for Systematic Reviews and Meta-Analyses) to suggest an optimum planting density for the highest dry aboveground productivity. The meta-analysis suggested that the optimal planting density of Agave is approximately 2,600 plants ha−1, which provides optimal dry aboveground biomass of 28.8 Mg ha−1 yr−1</t>
   </si>
   <si>
@@ -508,6 +505,29 @@
   </si>
   <si>
     <t>The aim of this study was to compare forecasting models for the planted area of agave mezcalero from 2023 to 2027, using data from the 1982–2022 period through autoregressive integrated moving average (ARIMA) models, in order to promote the efficient management of natural resources. The results identified a growth scenario for the planted area of agave mezcalero during the 2023–2027 period. The most accurate model, the autoregressive (4,0,0), projected that the maximum planted area would be reached in 2024, ranging from 22,723 to 60,280 hectares, followed by a gradual decline starting in 2025.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optimal planting density of Agave for maximising aboveground biomass:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A systematic literature review</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -953,19 +973,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -976,7 +996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -987,7 +1007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -998,7 +1018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1009,7 +1029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
         <v>12</v>
@@ -1018,7 +1038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
@@ -1027,7 +1047,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1038,7 +1058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1047,7 +1067,7 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="288" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1058,7 +1078,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -1067,7 +1087,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="390" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -1078,7 +1098,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -1087,7 +1107,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -1096,7 +1116,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1105,7 +1125,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1116,7 +1136,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>41</v>
       </c>
@@ -1130,7 +1150,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -1141,7 +1161,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="240" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="216" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -1152,7 +1172,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -1163,7 +1183,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>51</v>
       </c>
@@ -1174,7 +1194,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="384.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="384.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
@@ -1185,7 +1205,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>57</v>
       </c>
@@ -1198,7 +1218,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>59</v>
       </c>
@@ -1211,7 +1231,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>61</v>
       </c>
@@ -1226,7 +1246,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>64</v>
       </c>
@@ -1241,7 +1261,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>67</v>
       </c>
@@ -1256,57 +1276,57 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="C27" s="22" t="s">
         <v>71</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>72</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="C28" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="300" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="C29" s="22" t="s">
         <v>77</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>78</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="21" t="s">
         <v>79</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>80</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="14"/>
@@ -1314,42 +1334,42 @@
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="C31" s="22" t="s">
         <v>82</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>83</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="C32" s="22" t="s">
         <v>85</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>86</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="21" t="s">
         <v>87</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>88</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="14"/>
@@ -1357,12 +1377,12 @@
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>90</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="14"/>
@@ -1370,12 +1390,12 @@
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="1:7" ht="330" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="288" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="21" t="s">
         <v>91</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>92</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="14"/>
@@ -1383,12 +1403,12 @@
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>94</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="14"/>
@@ -1396,12 +1416,12 @@
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="21" t="s">
         <v>95</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>96</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="14"/>
@@ -1409,12 +1429,12 @@
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="21" t="s">
         <v>97</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>98</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="14"/>
@@ -1422,12 +1442,12 @@
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="1:7" ht="330" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="21" t="s">
         <v>99</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>100</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="14"/>
@@ -1435,7 +1455,7 @@
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
       <c r="B40" s="20"/>
       <c r="C40" s="19"/>
@@ -1444,7 +1464,7 @@
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="15"/>
       <c r="B41" s="20"/>
       <c r="C41" s="17"/>
@@ -1453,7 +1473,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="16"/>
@@ -1462,1032 +1482,1032 @@
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
